--- a/حالة تسجيل المذكرات.xlsx
+++ b/حالة تسجيل المذكرات.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F255D957-1F69-4B2A-9195-DE87C5A2CD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Tableau1[#All]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1228">
   <si>
     <t>مخلوفي  بلال</t>
   </si>
@@ -3709,13 +3708,22 @@
   </si>
   <si>
     <t>ATLN939</t>
+  </si>
+  <si>
+    <t>تم الإيداع</t>
+  </si>
+  <si>
+    <t>تاريخ الإيداع</t>
+  </si>
+  <si>
+    <t>لا</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3736,6 +3744,10 @@
       <sz val="12"/>
       <color rgb="FF202124"/>
       <name val="Docs-Roboto"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3846,7 +3858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3890,40 +3902,66 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="17">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3939,7 +3977,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3966,102 +4003,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -4074,7 +4015,6 @@
         <sz val="14"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4115,7 +4055,6 @@
         <sz val="14"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4154,7 +4093,6 @@
         <sz val="14"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4195,7 +4133,6 @@
         <sz val="14"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4236,7 +4173,6 @@
         <sz val="14"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4277,7 +4213,6 @@
         <sz val="14"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4341,7 +4276,6 @@
         <sz val="14"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4370,7 +4304,6 @@
         <sz val="14"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4391,6 +4324,36 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4405,19 +4368,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E1AECB4-FCE1-44A3-A530-A760DA9A70AD}" name="Tableau1" displayName="Tableau1" ref="A1:G240" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:G240" xr:uid="{1E1AECB4-FCE1-44A3-A530-A760DA9A70AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G240">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I240" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I240"/>
+  <sortState ref="A2:G240">
     <sortCondition ref="F1:F240"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{CC2FD9DC-7216-47F9-BAAC-2EEA417870C6}" name="الطالب الأول" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{3D34F64A-6EC6-4635-A526-145A1674E715}" name="الطالب الثاني" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{B20EAF0A-0146-4F7B-AEDA-AF04CE17A621}" name="رقم المذكرة" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{C0550057-4109-40E5-8281-FEF59E04FE5D}" name="عنوان المذكرة" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{79B6C039-DFC3-4340-9D0C-FAAA85373FCA}" name="التخصص" dataDxfId="15"/>
-    <tableColumn id="1" xr3:uid="{3D4A5F0D-EA9E-49EF-AE30-341440F235D5}" name="الأستاذ" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{82DC83E3-A0DD-431D-8E44-B5D4E6CFC7DA}" name="كلمة السر" dataDxfId="3"/>
+  <tableColumns count="9">
+    <tableColumn id="3" name="الطالب الأول" dataDxfId="8"/>
+    <tableColumn id="5" name="الطالب الثاني" dataDxfId="7"/>
+    <tableColumn id="7" name="رقم المذكرة" dataDxfId="6"/>
+    <tableColumn id="8" name="عنوان المذكرة" dataDxfId="5"/>
+    <tableColumn id="12" name="التخصص" dataDxfId="4"/>
+    <tableColumn id="1" name="الأستاذ" dataDxfId="3"/>
+    <tableColumn id="4" name="كلمة السر" dataDxfId="2"/>
+    <tableColumn id="2" name="تم الإيداع" dataDxfId="1"/>
+    <tableColumn id="6" name="تاريخ الإيداع" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4719,12 +4684,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G240"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I240"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" topLeftCell="A228" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection sqref="A1:G240"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4735,9 +4698,11 @@
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" customHeight="1">
+    <row r="1" spans="1:9" ht="33.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>843</v>
       </c>
@@ -4759,8 +4724,14 @@
       <c r="G1" s="2" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H1" s="16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="32.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>918</v>
       </c>
@@ -4782,8 +4753,12 @@
       <c r="G2" s="2" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H2" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" ht="32.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -4805,8 +4780,12 @@
       <c r="G3" s="2" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H3" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="32.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4828,8 +4807,12 @@
       <c r="G4" s="2" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H4" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="32.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -4851,8 +4834,12 @@
       <c r="G5" s="2" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H5" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="32.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4874,8 +4861,12 @@
       <c r="G6" s="2" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H6" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="32.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -4897,8 +4888,12 @@
       <c r="G7" s="2" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H7" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -4920,8 +4915,12 @@
       <c r="G8" s="2" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H8" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="32.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -4943,8 +4942,12 @@
       <c r="G9" s="2" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H9" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="32.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -4966,8 +4969,12 @@
       <c r="G10" s="2" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H10" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -4989,8 +4996,12 @@
       <c r="G11" s="2" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H11" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="32.25" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -5012,8 +5023,12 @@
       <c r="G12" s="2" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H12" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="32.25" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -5035,8 +5050,12 @@
       <c r="G13" s="2" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H13" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="32.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -5058,8 +5077,12 @@
       <c r="G14" s="2" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H14" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="32.25" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -5081,8 +5104,12 @@
       <c r="G15" s="2" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H15" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="32.25" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -5104,8 +5131,12 @@
       <c r="G16" s="2" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H16" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="32.25" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>63</v>
       </c>
@@ -5127,8 +5158,12 @@
       <c r="G17" s="2" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H17" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="32.25" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -5150,8 +5185,12 @@
       <c r="G18" s="2" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H18" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="32.25" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
@@ -5173,8 +5212,12 @@
       <c r="G19" s="2" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H19" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" ht="32.25" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
@@ -5196,8 +5239,12 @@
       <c r="G20" s="2" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H20" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" ht="32.25" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>78</v>
       </c>
@@ -5219,8 +5266,12 @@
       <c r="G21" s="2" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H21" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" ht="32.25" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>74</v>
       </c>
@@ -5242,8 +5293,12 @@
       <c r="G22" s="2" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H22" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="32.25" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
@@ -5265,8 +5320,12 @@
       <c r="G23" s="2" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H23" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="32.25" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>67</v>
       </c>
@@ -5288,8 +5347,12 @@
       <c r="G24" s="2" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H24" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>96</v>
       </c>
@@ -5311,8 +5374,12 @@
       <c r="G25" s="2" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H25" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" ht="32.25" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>89</v>
       </c>
@@ -5334,8 +5401,12 @@
       <c r="G26" s="2" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H26" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="32.25" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
@@ -5357,8 +5428,12 @@
       <c r="G27" s="2" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H27" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" ht="32.25" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>870</v>
       </c>
@@ -5380,8 +5455,12 @@
       <c r="G28" s="2" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H28" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" ht="32.25" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>93</v>
       </c>
@@ -5403,8 +5482,12 @@
       <c r="G29" s="2" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H29" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" ht="32.25" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>81</v>
       </c>
@@ -5426,8 +5509,12 @@
       <c r="G30" s="2" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H30" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" ht="32.25" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>109</v>
       </c>
@@ -5449,8 +5536,12 @@
       <c r="G31" s="2" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H31" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="32.25" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>104</v>
       </c>
@@ -5472,8 +5563,12 @@
       <c r="G32" s="2" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H32" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="32.25" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>100</v>
       </c>
@@ -5495,8 +5590,12 @@
       <c r="G33" s="2" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H33" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="1:9" ht="32.25" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>910</v>
       </c>
@@ -5518,8 +5617,12 @@
       <c r="G34" s="2" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H34" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="1:9" ht="32.25" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -5541,8 +5644,12 @@
       <c r="G35" s="2" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H35" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="1:9" ht="32.25" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -5564,8 +5671,12 @@
       <c r="G36" s="2" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H36" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="1:9" ht="32.25" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>123</v>
       </c>
@@ -5587,8 +5698,12 @@
       <c r="G37" s="2" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H37" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" ht="32.25" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>120</v>
       </c>
@@ -5610,8 +5725,12 @@
       <c r="G38" s="2" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H38" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="1:9" ht="32.25" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>127</v>
       </c>
@@ -5633,8 +5752,12 @@
       <c r="G39" s="2" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H39" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="1:9" ht="32.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>117</v>
       </c>
@@ -5656,8 +5779,12 @@
       <c r="G40" s="2" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H40" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="1:9" ht="32.25" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>139</v>
       </c>
@@ -5679,8 +5806,12 @@
       <c r="G41" s="2" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H41" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" ht="32.25" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>135</v>
       </c>
@@ -5702,8 +5833,12 @@
       <c r="G42" s="2" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H42" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="1:9" ht="32.25" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>143</v>
       </c>
@@ -5725,8 +5860,12 @@
       <c r="G43" s="2" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H43" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="1:9" ht="32.25" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>146</v>
       </c>
@@ -5748,8 +5887,12 @@
       <c r="G44" s="2" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H44" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" ht="32.25" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>165</v>
       </c>
@@ -5771,8 +5914,12 @@
       <c r="G45" s="2" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H45" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" ht="32.25" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>161</v>
       </c>
@@ -5794,8 +5941,12 @@
       <c r="G46" s="2" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H46" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="1:9" ht="32.25" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>154</v>
       </c>
@@ -5817,8 +5968,12 @@
       <c r="G47" s="2" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H47" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" ht="32.25" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>150</v>
       </c>
@@ -5840,8 +5995,12 @@
       <c r="G48" s="2" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H48" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="1:9" ht="32.25" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>158</v>
       </c>
@@ -5863,8 +6022,12 @@
       <c r="G49" s="2" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H49" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="32.25" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>172</v>
       </c>
@@ -5886,8 +6049,12 @@
       <c r="G50" s="2" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H50" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="1:9" ht="32.25" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>168</v>
       </c>
@@ -5909,8 +6076,12 @@
       <c r="G51" s="2" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H51" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" ht="32.25" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>176</v>
       </c>
@@ -5932,8 +6103,12 @@
       <c r="G52" s="2" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H52" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="1:9" ht="32.25" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>183</v>
       </c>
@@ -5955,8 +6130,12 @@
       <c r="G53" s="2" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H53" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" ht="32.25" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>179</v>
       </c>
@@ -5978,8 +6157,12 @@
       <c r="G54" s="2" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H54" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I54" s="15"/>
+    </row>
+    <row r="55" spans="1:9" ht="32.25" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>203</v>
       </c>
@@ -6001,8 +6184,12 @@
       <c r="G55" s="2" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H55" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="1:9" ht="32.25" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>199</v>
       </c>
@@ -6024,8 +6211,12 @@
       <c r="G56" s="2" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H56" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" spans="1:9" ht="32.25" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>195</v>
       </c>
@@ -6047,8 +6238,12 @@
       <c r="G57" s="2" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H57" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" spans="1:9" ht="32.25" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>187</v>
       </c>
@@ -6070,8 +6265,12 @@
       <c r="G58" s="2" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H58" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" spans="1:9" ht="32.25" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>191</v>
       </c>
@@ -6093,8 +6292,12 @@
       <c r="G59" s="2" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H59" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" spans="1:9" ht="32.25" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>875</v>
       </c>
@@ -6116,8 +6319,12 @@
       <c r="G60" s="2" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H60" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="1:9" ht="32.25" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>214</v>
       </c>
@@ -6139,8 +6346,12 @@
       <c r="G61" s="2" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H61" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="1:9" ht="32.25" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>207</v>
       </c>
@@ -6162,8 +6373,12 @@
       <c r="G62" s="2" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H62" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" spans="1:9" ht="32.25" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>211</v>
       </c>
@@ -6185,8 +6400,12 @@
       <c r="G63" s="2" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H63" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I63" s="15"/>
+    </row>
+    <row r="64" spans="1:9" ht="32.25" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>230</v>
       </c>
@@ -6208,8 +6427,12 @@
       <c r="G64" s="2" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H64" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" spans="1:9" ht="32.25" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>226</v>
       </c>
@@ -6231,8 +6454,12 @@
       <c r="G65" s="2" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H65" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I65" s="15"/>
+    </row>
+    <row r="66" spans="1:9" ht="32.25" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>222</v>
       </c>
@@ -6254,8 +6481,12 @@
       <c r="G66" s="2" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H66" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67" spans="1:9" ht="32.25" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>218</v>
       </c>
@@ -6277,8 +6508,12 @@
       <c r="G67" s="2" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H67" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" spans="1:9" ht="32.25" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>817</v>
       </c>
@@ -6300,8 +6535,12 @@
       <c r="G68" s="2" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H68" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="1:9" ht="32.25" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>832</v>
       </c>
@@ -6323,8 +6562,12 @@
       <c r="G69" s="2" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H69" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="1:9" ht="32.25" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>234</v>
       </c>
@@ -6346,8 +6589,12 @@
       <c r="G70" s="2" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H70" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" spans="1:9" ht="32.25" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>238</v>
       </c>
@@ -6369,8 +6616,12 @@
       <c r="G71" s="2" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H71" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" spans="1:9" ht="32.25" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>246</v>
       </c>
@@ -6392,8 +6643,12 @@
       <c r="G72" s="2" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H72" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I72" s="15"/>
+    </row>
+    <row r="73" spans="1:9" ht="32.25" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>242</v>
       </c>
@@ -6415,8 +6670,12 @@
       <c r="G73" s="2" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H73" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I73" s="15"/>
+    </row>
+    <row r="74" spans="1:9" ht="32.25" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>260</v>
       </c>
@@ -6438,8 +6697,12 @@
       <c r="G74" s="2" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H74" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I74" s="15"/>
+    </row>
+    <row r="75" spans="1:9" ht="32.25" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>257</v>
       </c>
@@ -6461,8 +6724,12 @@
       <c r="G75" s="2" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H75" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" spans="1:9" ht="32.25" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>250</v>
       </c>
@@ -6484,8 +6751,12 @@
       <c r="G76" s="2" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H76" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77" spans="1:9" ht="32.25" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>253</v>
       </c>
@@ -6507,8 +6778,12 @@
       <c r="G77" s="2" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H77" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I77" s="15"/>
+    </row>
+    <row r="78" spans="1:9" ht="32.25" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>264</v>
       </c>
@@ -6530,8 +6805,12 @@
       <c r="G78" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H78" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I78" s="15"/>
+    </row>
+    <row r="79" spans="1:9" ht="32.25" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>280</v>
       </c>
@@ -6553,8 +6832,12 @@
       <c r="G79" s="2" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H79" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80" spans="1:9" ht="32.25" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>276</v>
       </c>
@@ -6576,8 +6859,12 @@
       <c r="G80" s="2" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H80" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81" spans="1:9" ht="32.25" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>268</v>
       </c>
@@ -6599,8 +6886,12 @@
       <c r="G81" s="2" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H81" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="1:9" ht="32.25" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>272</v>
       </c>
@@ -6622,8 +6913,12 @@
       <c r="G82" s="2" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H82" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="1:9" ht="32.25" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>299</v>
       </c>
@@ -6645,8 +6940,12 @@
       <c r="G83" s="2" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H83" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I83" s="15"/>
+    </row>
+    <row r="84" spans="1:9" ht="32.25" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>295</v>
       </c>
@@ -6668,8 +6967,12 @@
       <c r="G84" s="2" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H84" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I84" s="15"/>
+    </row>
+    <row r="85" spans="1:9" ht="32.25" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>291</v>
       </c>
@@ -6691,8 +6994,12 @@
       <c r="G85" s="2" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H85" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I85" s="15"/>
+    </row>
+    <row r="86" spans="1:9" ht="32.25" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>287</v>
       </c>
@@ -6714,8 +7021,12 @@
       <c r="G86" s="2" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H86" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I86" s="15"/>
+    </row>
+    <row r="87" spans="1:9" ht="32.25" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>284</v>
       </c>
@@ -6737,8 +7048,12 @@
       <c r="G87" s="2" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H87" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I87" s="15"/>
+    </row>
+    <row r="88" spans="1:9" ht="32.25" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>303</v>
       </c>
@@ -6760,8 +7075,12 @@
       <c r="G88" s="2" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H88" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I88" s="15"/>
+    </row>
+    <row r="89" spans="1:9" ht="32.25" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>310</v>
       </c>
@@ -6783,8 +7102,12 @@
       <c r="G89" s="2" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H89" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I89" s="15"/>
+    </row>
+    <row r="90" spans="1:9" ht="32.25" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>306</v>
       </c>
@@ -6806,8 +7129,12 @@
       <c r="G90" s="2" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H90" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" spans="1:9" ht="32.25" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>329</v>
       </c>
@@ -6829,8 +7156,12 @@
       <c r="G91" s="2" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H91" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" spans="1:9" ht="32.25" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>325</v>
       </c>
@@ -6852,8 +7183,12 @@
       <c r="G92" s="2" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H92" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I92" s="15"/>
+    </row>
+    <row r="93" spans="1:9" ht="32.25" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>321</v>
       </c>
@@ -6875,8 +7210,12 @@
       <c r="G93" s="2" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H93" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I93" s="15"/>
+    </row>
+    <row r="94" spans="1:9" ht="32.25" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>313</v>
       </c>
@@ -6898,8 +7237,12 @@
       <c r="G94" s="2" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H94" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I94" s="15"/>
+    </row>
+    <row r="95" spans="1:9" ht="32.25" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>317</v>
       </c>
@@ -6921,8 +7264,12 @@
       <c r="G95" s="2" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H95" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I95" s="15"/>
+    </row>
+    <row r="96" spans="1:9" ht="32.25" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>344</v>
       </c>
@@ -6944,8 +7291,12 @@
       <c r="G96" s="2" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H96" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I96" s="15"/>
+    </row>
+    <row r="97" spans="1:9" ht="32.25" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>340</v>
       </c>
@@ -6967,8 +7318,12 @@
       <c r="G97" s="2" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H97" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I97" s="15"/>
+    </row>
+    <row r="98" spans="1:9" ht="32.25" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>333</v>
       </c>
@@ -6990,8 +7345,12 @@
       <c r="G98" s="2" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H98" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I98" s="15"/>
+    </row>
+    <row r="99" spans="1:9" ht="32.25" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>348</v>
       </c>
@@ -7013,8 +7372,12 @@
       <c r="G99" s="2" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H99" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I99" s="15"/>
+    </row>
+    <row r="100" spans="1:9" ht="32.25" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>336</v>
       </c>
@@ -7036,8 +7399,12 @@
       <c r="G100" s="2" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H100" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I100" s="15"/>
+    </row>
+    <row r="101" spans="1:9" ht="32.25" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>363</v>
       </c>
@@ -7059,8 +7426,12 @@
       <c r="G101" s="2" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H101" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I101" s="15"/>
+    </row>
+    <row r="102" spans="1:9" ht="32.25" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>360</v>
       </c>
@@ -7082,8 +7453,12 @@
       <c r="G102" s="2" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H102" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I102" s="15"/>
+    </row>
+    <row r="103" spans="1:9" ht="32.25" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>356</v>
       </c>
@@ -7105,8 +7480,12 @@
       <c r="G103" s="2" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H103" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I103" s="15"/>
+    </row>
+    <row r="104" spans="1:9" ht="32.25" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>352</v>
       </c>
@@ -7128,8 +7507,12 @@
       <c r="G104" s="2" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H104" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I104" s="15"/>
+    </row>
+    <row r="105" spans="1:9" ht="32.25" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>367</v>
       </c>
@@ -7151,8 +7534,12 @@
       <c r="G105" s="2" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H105" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I105" s="15"/>
+    </row>
+    <row r="106" spans="1:9" ht="32.25" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>912</v>
       </c>
@@ -7174,8 +7561,12 @@
       <c r="G106" s="2" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H106" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I106" s="15"/>
+    </row>
+    <row r="107" spans="1:9" ht="32.25" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>371</v>
       </c>
@@ -7197,8 +7588,12 @@
       <c r="G107" s="2" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H107" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I107" s="15"/>
+    </row>
+    <row r="108" spans="1:9" ht="32.25" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>375</v>
       </c>
@@ -7220,8 +7615,12 @@
       <c r="G108" s="2" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H108" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I108" s="15"/>
+    </row>
+    <row r="109" spans="1:9" ht="32.25" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>379</v>
       </c>
@@ -7243,8 +7642,12 @@
       <c r="G109" s="2" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H109" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I109" s="15"/>
+    </row>
+    <row r="110" spans="1:9" ht="32.25" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>383</v>
       </c>
@@ -7266,8 +7669,12 @@
       <c r="G110" s="2" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H110" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I110" s="15"/>
+    </row>
+    <row r="111" spans="1:9" ht="32.25" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>387</v>
       </c>
@@ -7289,8 +7696,12 @@
       <c r="G111" s="2" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H111" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I111" s="15"/>
+    </row>
+    <row r="112" spans="1:9" ht="32.25" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>905</v>
       </c>
@@ -7312,8 +7723,12 @@
       <c r="G112" s="2" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H112" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I112" s="15"/>
+    </row>
+    <row r="113" spans="1:9" ht="32.25" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>391</v>
       </c>
@@ -7335,8 +7750,12 @@
       <c r="G113" s="2" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H113" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I113" s="15"/>
+    </row>
+    <row r="114" spans="1:9" ht="32.25" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>395</v>
       </c>
@@ -7358,8 +7777,12 @@
       <c r="G114" s="2" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H114" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I114" s="15"/>
+    </row>
+    <row r="115" spans="1:9" ht="32.25" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>399</v>
       </c>
@@ -7381,8 +7804,12 @@
       <c r="G115" s="2" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H115" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I115" s="15"/>
+    </row>
+    <row r="116" spans="1:9" ht="32.25" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>403</v>
       </c>
@@ -7404,8 +7831,12 @@
       <c r="G116" s="2" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H116" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I116" s="15"/>
+    </row>
+    <row r="117" spans="1:9" ht="32.25" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>407</v>
       </c>
@@ -7427,8 +7858,12 @@
       <c r="G117" s="2" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H117" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I117" s="15"/>
+    </row>
+    <row r="118" spans="1:9" ht="32.25" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>410</v>
       </c>
@@ -7450,8 +7885,12 @@
       <c r="G118" s="2" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H118" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I118" s="15"/>
+    </row>
+    <row r="119" spans="1:9" ht="32.25" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>413</v>
       </c>
@@ -7473,8 +7912,12 @@
       <c r="G119" s="2" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H119" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I119" s="15"/>
+    </row>
+    <row r="120" spans="1:9" ht="32.25" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>416</v>
       </c>
@@ -7496,8 +7939,12 @@
       <c r="G120" s="2" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H120" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I120" s="15"/>
+    </row>
+    <row r="121" spans="1:9" ht="32.25" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>420</v>
       </c>
@@ -7519,8 +7966,12 @@
       <c r="G121" s="2" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H121" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I121" s="15"/>
+    </row>
+    <row r="122" spans="1:9" ht="32.25" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>424</v>
       </c>
@@ -7542,8 +7993,12 @@
       <c r="G122" s="2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H122" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I122" s="15"/>
+    </row>
+    <row r="123" spans="1:9" ht="32.25" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>428</v>
       </c>
@@ -7565,8 +8020,12 @@
       <c r="G123" s="2" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H123" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I123" s="15"/>
+    </row>
+    <row r="124" spans="1:9" ht="32.25" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>432</v>
       </c>
@@ -7588,8 +8047,12 @@
       <c r="G124" s="2" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H124" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I124" s="15"/>
+    </row>
+    <row r="125" spans="1:9" ht="32.25" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>436</v>
       </c>
@@ -7611,8 +8074,12 @@
       <c r="G125" s="2" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H125" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I125" s="15"/>
+    </row>
+    <row r="126" spans="1:9" ht="32.25" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>440</v>
       </c>
@@ -7634,8 +8101,12 @@
       <c r="G126" s="2" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H126" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I126" s="15"/>
+    </row>
+    <row r="127" spans="1:9" ht="32.25" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>444</v>
       </c>
@@ -7657,8 +8128,12 @@
       <c r="G127" s="2" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H127" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I127" s="15"/>
+    </row>
+    <row r="128" spans="1:9" ht="32.25" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>448</v>
       </c>
@@ -7680,8 +8155,12 @@
       <c r="G128" s="2" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H128" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I128" s="15"/>
+    </row>
+    <row r="129" spans="1:9" ht="32.25" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>452</v>
       </c>
@@ -7703,8 +8182,12 @@
       <c r="G129" s="2" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H129" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I129" s="15"/>
+    </row>
+    <row r="130" spans="1:9" ht="32.25" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>814</v>
       </c>
@@ -7726,8 +8209,12 @@
       <c r="G130" s="2" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H130" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I130" s="15"/>
+    </row>
+    <row r="131" spans="1:9" ht="32.25" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>828</v>
       </c>
@@ -7749,8 +8236,12 @@
       <c r="G131" s="2" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H131" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I131" s="15"/>
+    </row>
+    <row r="132" spans="1:9" ht="32.25" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>874</v>
       </c>
@@ -7772,8 +8263,12 @@
       <c r="G132" s="2" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H132" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I132" s="15"/>
+    </row>
+    <row r="133" spans="1:9" ht="32.25" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>455</v>
       </c>
@@ -7795,8 +8290,12 @@
       <c r="G133" s="2" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H133" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I133" s="15"/>
+    </row>
+    <row r="134" spans="1:9" ht="32.25" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>458</v>
       </c>
@@ -7818,8 +8317,12 @@
       <c r="G134" s="2" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H134" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I134" s="15"/>
+    </row>
+    <row r="135" spans="1:9" ht="32.25" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>462</v>
       </c>
@@ -7841,8 +8344,12 @@
       <c r="G135" s="2" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H135" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I135" s="15"/>
+    </row>
+    <row r="136" spans="1:9" ht="32.25" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>466</v>
       </c>
@@ -7864,8 +8371,12 @@
       <c r="G136" s="2" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H136" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I136" s="15"/>
+    </row>
+    <row r="137" spans="1:9" ht="32.25" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>470</v>
       </c>
@@ -7887,8 +8398,12 @@
       <c r="G137" s="2" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H137" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I137" s="15"/>
+    </row>
+    <row r="138" spans="1:9" ht="32.25" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>474</v>
       </c>
@@ -7910,8 +8425,12 @@
       <c r="G138" s="2" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H138" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I138" s="15"/>
+    </row>
+    <row r="139" spans="1:9" ht="32.25" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>478</v>
       </c>
@@ -7933,8 +8452,12 @@
       <c r="G139" s="2" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H139" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I139" s="15"/>
+    </row>
+    <row r="140" spans="1:9" ht="32.25" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>481</v>
       </c>
@@ -7956,8 +8479,12 @@
       <c r="G140" s="2" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H140" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I140" s="15"/>
+    </row>
+    <row r="141" spans="1:9" ht="32.25" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>485</v>
       </c>
@@ -7979,8 +8506,12 @@
       <c r="G141" s="2" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H141" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I141" s="15"/>
+    </row>
+    <row r="142" spans="1:9" ht="32.25" customHeight="1">
       <c r="A142" s="4" t="s">
         <v>489</v>
       </c>
@@ -8002,8 +8533,12 @@
       <c r="G142" s="2" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H142" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I142" s="15"/>
+    </row>
+    <row r="143" spans="1:9" ht="32.25" customHeight="1">
       <c r="A143" s="4" t="s">
         <v>493</v>
       </c>
@@ -8025,8 +8560,12 @@
       <c r="G143" s="2" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H143" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I143" s="15"/>
+    </row>
+    <row r="144" spans="1:9" ht="32.25" customHeight="1">
       <c r="A144" s="4" t="s">
         <v>496</v>
       </c>
@@ -8048,8 +8587,12 @@
       <c r="G144" s="2" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H144" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I144" s="15"/>
+    </row>
+    <row r="145" spans="1:9" ht="32.25" customHeight="1">
       <c r="A145" s="4" t="s">
         <v>499</v>
       </c>
@@ -8071,8 +8614,12 @@
       <c r="G145" s="2" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H145" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I145" s="15"/>
+    </row>
+    <row r="146" spans="1:9" ht="32.25" customHeight="1">
       <c r="A146" s="4" t="s">
         <v>502</v>
       </c>
@@ -8094,8 +8641,12 @@
       <c r="G146" s="2" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H146" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I146" s="15"/>
+    </row>
+    <row r="147" spans="1:9" ht="32.25" customHeight="1">
       <c r="A147" s="4" t="s">
         <v>810</v>
       </c>
@@ -8117,8 +8668,12 @@
       <c r="G147" s="2" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H147" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I147" s="15"/>
+    </row>
+    <row r="148" spans="1:9" ht="32.25" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>824</v>
       </c>
@@ -8140,8 +8695,12 @@
       <c r="G148" s="2" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H148" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I148" s="15"/>
+    </row>
+    <row r="149" spans="1:9" ht="32.25" customHeight="1">
       <c r="A149" s="4" t="s">
         <v>835</v>
       </c>
@@ -8163,8 +8722,12 @@
       <c r="G149" s="2" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H149" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I149" s="15"/>
+    </row>
+    <row r="150" spans="1:9" ht="32.25" customHeight="1">
       <c r="A150" s="4" t="s">
         <v>839</v>
       </c>
@@ -8186,8 +8749,12 @@
       <c r="G150" s="2" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H150" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I150" s="15"/>
+    </row>
+    <row r="151" spans="1:9" ht="32.25" customHeight="1">
       <c r="A151" s="4" t="s">
         <v>505</v>
       </c>
@@ -8209,8 +8776,12 @@
       <c r="G151" s="2" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H151" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I151" s="15"/>
+    </row>
+    <row r="152" spans="1:9" ht="32.25" customHeight="1">
       <c r="A152" s="4" t="s">
         <v>508</v>
       </c>
@@ -8232,8 +8803,12 @@
       <c r="G152" s="2" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H152" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I152" s="15"/>
+    </row>
+    <row r="153" spans="1:9" ht="32.25" customHeight="1">
       <c r="A153" s="4" t="s">
         <v>511</v>
       </c>
@@ -8255,8 +8830,12 @@
       <c r="G153" s="2" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H153" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I153" s="15"/>
+    </row>
+    <row r="154" spans="1:9" ht="32.25" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>872</v>
       </c>
@@ -8278,8 +8857,12 @@
       <c r="G154" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H154" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I154" s="15"/>
+    </row>
+    <row r="155" spans="1:9" ht="32.25" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>869</v>
       </c>
@@ -8301,8 +8884,12 @@
       <c r="G155" s="2" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H155" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I155" s="15"/>
+    </row>
+    <row r="156" spans="1:9" ht="32.25" customHeight="1">
       <c r="A156" s="4" t="s">
         <v>515</v>
       </c>
@@ -8324,8 +8911,12 @@
       <c r="G156" s="2" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H156" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I156" s="15"/>
+    </row>
+    <row r="157" spans="1:9" ht="32.25" customHeight="1">
       <c r="A157" s="4" t="s">
         <v>519</v>
       </c>
@@ -8347,8 +8938,12 @@
       <c r="G157" s="2" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H157" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I157" s="15"/>
+    </row>
+    <row r="158" spans="1:9" ht="32.25" customHeight="1">
       <c r="A158" s="4" t="s">
         <v>523</v>
       </c>
@@ -8370,8 +8965,12 @@
       <c r="G158" s="2" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H158" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I158" s="15"/>
+    </row>
+    <row r="159" spans="1:9" ht="32.25" customHeight="1">
       <c r="A159" s="4" t="s">
         <v>526</v>
       </c>
@@ -8393,8 +8992,12 @@
       <c r="G159" s="2" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H159" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I159" s="15"/>
+    </row>
+    <row r="160" spans="1:9" ht="32.25" customHeight="1">
       <c r="A160" s="4" t="s">
         <v>530</v>
       </c>
@@ -8416,8 +9019,12 @@
       <c r="G160" s="2" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H160" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I160" s="15"/>
+    </row>
+    <row r="161" spans="1:9" ht="32.25" customHeight="1">
       <c r="A161" s="4" t="s">
         <v>533</v>
       </c>
@@ -8439,8 +9046,12 @@
       <c r="G161" s="2" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H161" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I161" s="15"/>
+    </row>
+    <row r="162" spans="1:9" ht="32.25" customHeight="1">
       <c r="A162" s="4" t="s">
         <v>537</v>
       </c>
@@ -8462,8 +9073,12 @@
       <c r="G162" s="2" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H162" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I162" s="15"/>
+    </row>
+    <row r="163" spans="1:9" ht="32.25" customHeight="1">
       <c r="A163" s="4" t="s">
         <v>540</v>
       </c>
@@ -8485,8 +9100,12 @@
       <c r="G163" s="2" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H163" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I163" s="15"/>
+    </row>
+    <row r="164" spans="1:9" ht="32.25" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>543</v>
       </c>
@@ -8508,8 +9127,12 @@
       <c r="G164" s="2" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H164" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I164" s="15"/>
+    </row>
+    <row r="165" spans="1:9" ht="32.25" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>547</v>
       </c>
@@ -8531,8 +9154,12 @@
       <c r="G165" s="2" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H165" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I165" s="15"/>
+    </row>
+    <row r="166" spans="1:9" ht="32.25" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>551</v>
       </c>
@@ -8554,8 +9181,12 @@
       <c r="G166" s="2" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H166" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I166" s="15"/>
+    </row>
+    <row r="167" spans="1:9" ht="32.25" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>908</v>
       </c>
@@ -8577,8 +9208,12 @@
       <c r="G167" s="2" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H167" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I167" s="15"/>
+    </row>
+    <row r="168" spans="1:9" ht="32.25" customHeight="1">
       <c r="A168" s="4" t="s">
         <v>806</v>
       </c>
@@ -8600,8 +9235,12 @@
       <c r="G168" s="2" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H168" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I168" s="15"/>
+    </row>
+    <row r="169" spans="1:9" ht="32.25" customHeight="1">
       <c r="A169" s="4" t="s">
         <v>871</v>
       </c>
@@ -8623,8 +9262,12 @@
       <c r="G169" s="2" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H169" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I169" s="15"/>
+    </row>
+    <row r="170" spans="1:9" ht="32.25" customHeight="1">
       <c r="A170" s="4" t="s">
         <v>555</v>
       </c>
@@ -8646,8 +9289,12 @@
       <c r="G170" s="2" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H170" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I170" s="15"/>
+    </row>
+    <row r="171" spans="1:9" ht="32.25" customHeight="1">
       <c r="A171" s="4" t="s">
         <v>559</v>
       </c>
@@ -8669,8 +9316,12 @@
       <c r="G171" s="2" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H171" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I171" s="15"/>
+    </row>
+    <row r="172" spans="1:9" ht="32.25" customHeight="1">
       <c r="A172" s="4" t="s">
         <v>563</v>
       </c>
@@ -8692,8 +9343,12 @@
       <c r="G172" s="2" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H172" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I172" s="15"/>
+    </row>
+    <row r="173" spans="1:9" ht="32.25" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>567</v>
       </c>
@@ -8715,8 +9370,12 @@
       <c r="G173" s="2" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H173" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I173" s="15"/>
+    </row>
+    <row r="174" spans="1:9" ht="32.25" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>571</v>
       </c>
@@ -8738,8 +9397,12 @@
       <c r="G174" s="2" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H174" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I174" s="15"/>
+    </row>
+    <row r="175" spans="1:9" ht="32.25" customHeight="1">
       <c r="A175" s="4" t="s">
         <v>575</v>
       </c>
@@ -8761,8 +9424,12 @@
       <c r="G175" s="2" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H175" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I175" s="15"/>
+    </row>
+    <row r="176" spans="1:9" ht="32.25" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>579</v>
       </c>
@@ -8784,8 +9451,12 @@
       <c r="G176" s="2" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H176" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I176" s="15"/>
+    </row>
+    <row r="177" spans="1:9" ht="32.25" customHeight="1">
       <c r="A177" s="4" t="s">
         <v>583</v>
       </c>
@@ -8807,8 +9478,12 @@
       <c r="G177" s="2" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H177" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I177" s="15"/>
+    </row>
+    <row r="178" spans="1:9" ht="32.25" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>587</v>
       </c>
@@ -8830,8 +9505,12 @@
       <c r="G178" s="2" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H178" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I178" s="15"/>
+    </row>
+    <row r="179" spans="1:9" ht="32.25" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>901</v>
       </c>
@@ -8853,8 +9532,12 @@
       <c r="G179" s="2" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H179" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I179" s="15"/>
+    </row>
+    <row r="180" spans="1:9" ht="32.25" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>590</v>
       </c>
@@ -8876,8 +9559,12 @@
       <c r="G180" s="2" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H180" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I180" s="15"/>
+    </row>
+    <row r="181" spans="1:9" ht="32.25" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>594</v>
       </c>
@@ -8899,8 +9586,12 @@
       <c r="G181" s="2" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H181" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I181" s="15"/>
+    </row>
+    <row r="182" spans="1:9" ht="32.25" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>598</v>
       </c>
@@ -8922,8 +9613,12 @@
       <c r="G182" s="2" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H182" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I182" s="15"/>
+    </row>
+    <row r="183" spans="1:9" ht="32.25" customHeight="1">
       <c r="A183" s="4" t="s">
         <v>602</v>
       </c>
@@ -8945,8 +9640,12 @@
       <c r="G183" s="2" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H183" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I183" s="15"/>
+    </row>
+    <row r="184" spans="1:9" ht="32.25" customHeight="1">
       <c r="A184" s="4" t="s">
         <v>876</v>
       </c>
@@ -8968,8 +9667,12 @@
       <c r="G184" s="2" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H184" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I184" s="15"/>
+    </row>
+    <row r="185" spans="1:9" ht="32.25" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>606</v>
       </c>
@@ -8991,8 +9694,12 @@
       <c r="G185" s="2" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H185" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I185" s="15"/>
+    </row>
+    <row r="186" spans="1:9" ht="32.25" customHeight="1">
       <c r="A186" s="4" t="s">
         <v>610</v>
       </c>
@@ -9014,8 +9721,12 @@
       <c r="G186" s="2" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H186" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I186" s="15"/>
+    </row>
+    <row r="187" spans="1:9" ht="32.25" customHeight="1">
       <c r="A187" s="4" t="s">
         <v>613</v>
       </c>
@@ -9037,8 +9748,12 @@
       <c r="G187" s="2" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H187" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I187" s="15"/>
+    </row>
+    <row r="188" spans="1:9" ht="32.25" customHeight="1">
       <c r="A188" s="4" t="s">
         <v>616</v>
       </c>
@@ -9060,8 +9775,12 @@
       <c r="G188" s="2" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H188" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I188" s="15"/>
+    </row>
+    <row r="189" spans="1:9" ht="32.25" customHeight="1">
       <c r="A189" s="4" t="s">
         <v>618</v>
       </c>
@@ -9083,8 +9802,12 @@
       <c r="G189" s="2" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H189" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I189" s="15"/>
+    </row>
+    <row r="190" spans="1:9" ht="32.25" customHeight="1">
       <c r="A190" s="4" t="s">
         <v>622</v>
       </c>
@@ -9106,8 +9829,12 @@
       <c r="G190" s="2" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H190" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I190" s="15"/>
+    </row>
+    <row r="191" spans="1:9" ht="32.25" customHeight="1">
       <c r="A191" s="4" t="s">
         <v>626</v>
       </c>
@@ -9129,8 +9856,12 @@
       <c r="G191" s="2" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H191" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I191" s="15"/>
+    </row>
+    <row r="192" spans="1:9" ht="32.25" customHeight="1">
       <c r="A192" s="4" t="s">
         <v>630</v>
       </c>
@@ -9152,8 +9883,12 @@
       <c r="G192" s="2" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H192" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I192" s="15"/>
+    </row>
+    <row r="193" spans="1:9" ht="32.25" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>634</v>
       </c>
@@ -9175,8 +9910,12 @@
       <c r="G193" s="2" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H193" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I193" s="15"/>
+    </row>
+    <row r="194" spans="1:9" ht="32.25" customHeight="1">
       <c r="A194" s="4" t="s">
         <v>638</v>
       </c>
@@ -9198,8 +9937,12 @@
       <c r="G194" s="2" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H194" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I194" s="15"/>
+    </row>
+    <row r="195" spans="1:9" ht="32.25" customHeight="1">
       <c r="A195" s="4" t="s">
         <v>642</v>
       </c>
@@ -9221,8 +9964,12 @@
       <c r="G195" s="2" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H195" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I195" s="15"/>
+    </row>
+    <row r="196" spans="1:9" ht="32.25" customHeight="1">
       <c r="A196" s="4" t="s">
         <v>646</v>
       </c>
@@ -9244,8 +9991,12 @@
       <c r="G196" s="2" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H196" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I196" s="15"/>
+    </row>
+    <row r="197" spans="1:9" ht="32.25" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>650</v>
       </c>
@@ -9267,8 +10018,12 @@
       <c r="G197" s="2" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H197" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I197" s="15"/>
+    </row>
+    <row r="198" spans="1:9" ht="32.25" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>654</v>
       </c>
@@ -9290,8 +10045,12 @@
       <c r="G198" s="2" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H198" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I198" s="15"/>
+    </row>
+    <row r="199" spans="1:9" ht="32.25" customHeight="1">
       <c r="A199" s="4" t="s">
         <v>657</v>
       </c>
@@ -9313,8 +10072,12 @@
       <c r="G199" s="2" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H199" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I199" s="15"/>
+    </row>
+    <row r="200" spans="1:9" ht="32.25" customHeight="1">
       <c r="A200" s="4" t="s">
         <v>661</v>
       </c>
@@ -9336,8 +10099,12 @@
       <c r="G200" s="2" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H200" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I200" s="15"/>
+    </row>
+    <row r="201" spans="1:9" ht="32.25" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>665</v>
       </c>
@@ -9359,8 +10126,12 @@
       <c r="G201" s="2" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H201" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I201" s="15"/>
+    </row>
+    <row r="202" spans="1:9" ht="32.25" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>669</v>
       </c>
@@ -9382,8 +10153,12 @@
       <c r="G202" s="2" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H202" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I202" s="15"/>
+    </row>
+    <row r="203" spans="1:9" ht="32.25" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>673</v>
       </c>
@@ -9405,8 +10180,12 @@
       <c r="G203" s="2" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H203" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I203" s="15"/>
+    </row>
+    <row r="204" spans="1:9" ht="32.25" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>677</v>
       </c>
@@ -9428,8 +10207,12 @@
       <c r="G204" s="2" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H204" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I204" s="15"/>
+    </row>
+    <row r="205" spans="1:9" ht="32.25" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>681</v>
       </c>
@@ -9451,8 +10234,12 @@
       <c r="G205" s="2" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H205" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I205" s="15"/>
+    </row>
+    <row r="206" spans="1:9" ht="32.25" customHeight="1">
       <c r="A206" s="4" t="s">
         <v>685</v>
       </c>
@@ -9474,8 +10261,12 @@
       <c r="G206" s="2" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H206" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I206" s="15"/>
+    </row>
+    <row r="207" spans="1:9" ht="32.25" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>689</v>
       </c>
@@ -9497,8 +10288,12 @@
       <c r="G207" s="2" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H207" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I207" s="15"/>
+    </row>
+    <row r="208" spans="1:9" ht="32.25" customHeight="1">
       <c r="A208" s="4" t="s">
         <v>693</v>
       </c>
@@ -9520,8 +10315,12 @@
       <c r="G208" s="2" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H208" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I208" s="15"/>
+    </row>
+    <row r="209" spans="1:9" ht="32.25" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>696</v>
       </c>
@@ -9543,8 +10342,12 @@
       <c r="G209" s="2" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H209" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I209" s="15"/>
+    </row>
+    <row r="210" spans="1:9" ht="32.25" customHeight="1">
       <c r="A210" s="4" t="s">
         <v>700</v>
       </c>
@@ -9566,8 +10369,12 @@
       <c r="G210" s="2" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H210" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I210" s="15"/>
+    </row>
+    <row r="211" spans="1:9" ht="32.25" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>704</v>
       </c>
@@ -9589,8 +10396,12 @@
       <c r="G211" s="2" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H211" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I211" s="15"/>
+    </row>
+    <row r="212" spans="1:9" ht="32.25" customHeight="1">
       <c r="A212" s="4" t="s">
         <v>708</v>
       </c>
@@ -9612,8 +10423,12 @@
       <c r="G212" s="2" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H212" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I212" s="15"/>
+    </row>
+    <row r="213" spans="1:9" ht="32.25" customHeight="1">
       <c r="A213" s="4" t="s">
         <v>712</v>
       </c>
@@ -9635,8 +10450,12 @@
       <c r="G213" s="2" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H213" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I213" s="15"/>
+    </row>
+    <row r="214" spans="1:9" ht="32.25" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>716</v>
       </c>
@@ -9658,8 +10477,12 @@
       <c r="G214" s="2" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H214" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I214" s="15"/>
+    </row>
+    <row r="215" spans="1:9" ht="32.25" customHeight="1">
       <c r="A215" s="4" t="s">
         <v>719</v>
       </c>
@@ -9681,8 +10504,12 @@
       <c r="G215" s="2" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H215" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I215" s="15"/>
+    </row>
+    <row r="216" spans="1:9" ht="32.25" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>723</v>
       </c>
@@ -9704,8 +10531,12 @@
       <c r="G216" s="2" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H216" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I216" s="15"/>
+    </row>
+    <row r="217" spans="1:9" ht="32.25" customHeight="1">
       <c r="A217" s="4" t="s">
         <v>727</v>
       </c>
@@ -9727,8 +10558,12 @@
       <c r="G217" s="2" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H217" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I217" s="15"/>
+    </row>
+    <row r="218" spans="1:9" ht="32.25" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>730</v>
       </c>
@@ -9750,8 +10585,12 @@
       <c r="G218" s="2" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H218" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I218" s="15"/>
+    </row>
+    <row r="219" spans="1:9" ht="32.25" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>873</v>
       </c>
@@ -9773,8 +10612,12 @@
       <c r="G219" s="2" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H219" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I219" s="15"/>
+    </row>
+    <row r="220" spans="1:9" ht="32.25" customHeight="1">
       <c r="A220" s="4" t="s">
         <v>733</v>
       </c>
@@ -9796,8 +10639,12 @@
       <c r="G220" s="2" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H220" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I220" s="15"/>
+    </row>
+    <row r="221" spans="1:9" ht="32.25" customHeight="1">
       <c r="A221" s="4" t="s">
         <v>737</v>
       </c>
@@ -9819,8 +10666,12 @@
       <c r="G221" s="2" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H221" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I221" s="15"/>
+    </row>
+    <row r="222" spans="1:9" ht="32.25" customHeight="1">
       <c r="A222" s="4" t="s">
         <v>741</v>
       </c>
@@ -9842,8 +10693,12 @@
       <c r="G222" s="2" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H222" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I222" s="15"/>
+    </row>
+    <row r="223" spans="1:9" ht="32.25" customHeight="1">
       <c r="A223" s="4" t="s">
         <v>745</v>
       </c>
@@ -9865,8 +10720,12 @@
       <c r="G223" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H223" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I223" s="15"/>
+    </row>
+    <row r="224" spans="1:9" ht="32.25" customHeight="1">
       <c r="A224" s="11" t="s">
         <v>748</v>
       </c>
@@ -9888,8 +10747,12 @@
       <c r="G224" s="2" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H224" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I224" s="15"/>
+    </row>
+    <row r="225" spans="1:9" ht="32.25" customHeight="1">
       <c r="A225" s="4" t="s">
         <v>752</v>
       </c>
@@ -9911,8 +10774,12 @@
       <c r="G225" s="2" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H225" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I225" s="15"/>
+    </row>
+    <row r="226" spans="1:9" ht="32.25" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>756</v>
       </c>
@@ -9934,8 +10801,12 @@
       <c r="G226" s="2" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H226" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I226" s="15"/>
+    </row>
+    <row r="227" spans="1:9" ht="32.25" customHeight="1">
       <c r="A227" s="4" t="s">
         <v>760</v>
       </c>
@@ -9957,8 +10828,12 @@
       <c r="G227" s="2" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H227" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I227" s="15"/>
+    </row>
+    <row r="228" spans="1:9" ht="32.25" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>764</v>
       </c>
@@ -9980,8 +10855,12 @@
       <c r="G228" s="2" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H228" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I228" s="15"/>
+    </row>
+    <row r="229" spans="1:9" ht="32.25" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>768</v>
       </c>
@@ -10003,8 +10882,12 @@
       <c r="G229" s="2" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H229" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I229" s="15"/>
+    </row>
+    <row r="230" spans="1:9" ht="32.25" customHeight="1">
       <c r="A230" s="4" t="s">
         <v>771</v>
       </c>
@@ -10026,8 +10909,12 @@
       <c r="G230" s="2" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H230" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I230" s="15"/>
+    </row>
+    <row r="231" spans="1:9" ht="32.25" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>915</v>
       </c>
@@ -10049,8 +10936,12 @@
       <c r="G231" s="2" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H231" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I231" s="15"/>
+    </row>
+    <row r="232" spans="1:9" ht="32.25" customHeight="1">
       <c r="A232" s="4" t="s">
         <v>774</v>
       </c>
@@ -10072,8 +10963,12 @@
       <c r="G232" s="2" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H232" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I232" s="15"/>
+    </row>
+    <row r="233" spans="1:9" ht="32.25" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>778</v>
       </c>
@@ -10095,8 +10990,12 @@
       <c r="G233" s="2" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="32.25" customHeight="1">
+      <c r="H233" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I233" s="15"/>
+    </row>
+    <row r="234" spans="1:9" ht="32.25" customHeight="1">
       <c r="A234" s="11" t="s">
         <v>782</v>
       </c>
@@ -10118,8 +11017,12 @@
       <c r="G234" s="2" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="30" customHeight="1">
+      <c r="H234" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I234" s="15"/>
+    </row>
+    <row r="235" spans="1:9" ht="30" customHeight="1">
       <c r="A235" s="11" t="s">
         <v>786</v>
       </c>
@@ -10141,8 +11044,12 @@
       <c r="G235" s="2" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" ht="30" customHeight="1">
+      <c r="H235" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I235" s="15"/>
+    </row>
+    <row r="236" spans="1:9" ht="30" customHeight="1">
       <c r="A236" s="11" t="s">
         <v>821</v>
       </c>
@@ -10164,8 +11071,12 @@
       <c r="G236" s="2" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" ht="30" customHeight="1">
+      <c r="H236" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I236" s="15"/>
+    </row>
+    <row r="237" spans="1:9" ht="30" customHeight="1">
       <c r="A237" s="11" t="s">
         <v>790</v>
       </c>
@@ -10187,8 +11098,12 @@
       <c r="G237" s="2" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" ht="30" customHeight="1">
+      <c r="H237" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I237" s="15"/>
+    </row>
+    <row r="238" spans="1:9" ht="30" customHeight="1">
       <c r="A238" s="11" t="s">
         <v>794</v>
       </c>
@@ -10210,8 +11125,12 @@
       <c r="G238" s="2" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" ht="30" customHeight="1">
+      <c r="H238" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I238" s="15"/>
+    </row>
+    <row r="239" spans="1:9" ht="30" customHeight="1">
       <c r="A239" s="11" t="s">
         <v>798</v>
       </c>
@@ -10233,8 +11152,12 @@
       <c r="G239" s="2" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" ht="30" customHeight="1">
+      <c r="H239" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I239" s="15"/>
+    </row>
+    <row r="240" spans="1:9" ht="30" customHeight="1">
       <c r="A240" s="11" t="s">
         <v>802</v>
       </c>
@@ -10256,14 +11179,18 @@
       <c r="G240" s="2" t="s">
         <v>1212</v>
       </c>
+      <c r="H240" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I240" s="15"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C240">
+    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C3:C240">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C240">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
